--- a/biology/Neurosciences/Tic/Tic.xlsx
+++ b/biology/Neurosciences/Tic/Tic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tics, parfois désignés sous le nom de tics nerveux, sont des sortes de contractions convulsives et répétitives de certains muscles, particulièrement du visage, auxquelles quelques personnes sont sujettes, et qui surprennent par leur caractère brusque, inapproprié à la situation.
 </t>
@@ -511,9 +523,11 @@
           <t>Signification occasionnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme tic est occasionnellement désigné comme l'acronyme de « trouble involontaire convulsif », à la différence du terme TOC qui lui signifie officiellement « trouble obsessionnel compulsif »[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme tic est occasionnellement désigné comme l'acronyme de « trouble involontaire convulsif », à la différence du terme TOC qui lui signifie officiellement « trouble obsessionnel compulsif »,.
 </t>
         </is>
       </c>
@@ -542,21 +556,18 @@
           <t>Caractères des tics</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Un tic présente ordinairement les caractères suivants[3]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un tic présente ordinairement les caractères suivants:
 suggestibilité : le degré d'émotivité et l'attention du sujet influent sur le déclenchement du tic.
 involontaire ou semi-volontaire : le tic est spontané ou parasite un mouvement délibéré.
 suppressible temporairement : le tic répond passagèrement à un effort de contrôle
 besoin réalisé (« urge to move »)
 rémittent : la fréquence des tics connaît des diminutions passagères.
 On distingue plusieurs types de tics :
-Tics moteurs
-simples : clignement des yeux ;
-complexes : mouvement de haussement d'épaules, mouvements du visage et ou mouvements de la tête (hausser les sourcils, rouler les yeux, faire mine de renifler), mouvement des mains (taper sur un support, « jouer » avec sa barbe, ses cheveux ou ses sourcils, se frotter le menton).
-Tics vocaux
-simples : émission vocale ;
-complexes : émission de mots, groupes de mots ou phrases, coprolalie (prononcer des grossièretés).</t>
+</t>
         </is>
       </c>
     </row>
@@ -581,15 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Causes</t>
+          <t>Caractères des tics</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le stress, la fatigue, la nervosité ou l'ennui peuvent être des facteurs déclencheurs de tics[3]. 
-Certaines maladies neurologiques sont caractérisées par des tics à répétition. Le syndrome de Gilles de la Tourette est un exemple de maladie où les tics font partie du diagnostic. 
-Les tics peuvent également prendre la forme de tics de langage.[réf. nécessaire]
-</t>
+          <t>Tics moteurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>simples : clignement des yeux ;
+complexes : mouvement de haussement d'épaules, mouvements du visage et ou mouvements de la tête (hausser les sourcils, rouler les yeux, faire mine de renifler), mouvement des mains (taper sur un support, « jouer » avec sa barbe, ses cheveux ou ses sourcils, se frotter le menton).</t>
         </is>
       </c>
     </row>
@@ -614,10 +629,84 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Caractères des tics</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tics vocaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>simples : émission vocale ;
+complexes : émission de mots, groupes de mots ou phrases, coprolalie (prononcer des grossièretés).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tic</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tic</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stress, la fatigue, la nervosité ou l'ennui peuvent être des facteurs déclencheurs de tics. 
+Certaines maladies neurologiques sont caractérisées par des tics à répétition. Le syndrome de Gilles de la Tourette est un exemple de maladie où les tics font partie du diagnostic. 
+Les tics peuvent également prendre la forme de tics de langage.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tic</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tic</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Maladies comportant des tics</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Maladie de Gilles de la Tourette</t>
         </is>
